--- a/Cointab Data Analyst - Challenge/Summary.xlsx
+++ b/Cointab Data Analyst - Challenge/Summary.xlsx
@@ -16,7 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -24,28 +24,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,17 +43,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -281,14 +264,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.75"/>
-    <col customWidth="1" min="2" max="2" width="5.5"/>
-    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="1" max="1" width="25.13"/>
+    <col customWidth="1" min="2" max="2" width="9.63"/>
+    <col customWidth="1" min="3" max="3" width="12.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/12Jnf7j-hQcxHLpp5wnQQQUZSplggBFNPPFZplf4EdZY/edit#gid=1589031663&amp;range=A1:C4"", ""A1:C4"")"),"")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/10uxeUgvXoUpkbFr40lhWYA7JQKd7AsWcKEIanCobNHk/edit#gid=444843042&amp;range=A1:C4"",""A1:C4"")"),"")</f>
         <v/>
       </c>
       <c r="B1" s="1" t="str">
@@ -301,17 +284,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Total Orders - Correctly Charged")</f>
         <v>Total Orders - Correctly Charged</v>
       </c>
-      <c r="B2" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
-      </c>
-      <c r="C2" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+      <c r="B2" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1268.5999999999997)</f>
+        <v>1268.6</v>
       </c>
     </row>
     <row r="3">
@@ -319,13 +302,13 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Total Orders - Over Charged")</f>
         <v>Total Orders - Over Charged</v>
       </c>
-      <c r="B3" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
-      </c>
-      <c r="C3" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2973.8999999999987)</f>
-        <v>-2973.9</v>
+      <c r="B3" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
+      </c>
+      <c r="C3" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-4426.5999999999985)</f>
+        <v>-4426.6</v>
       </c>
     </row>
     <row r="4">
@@ -333,13 +316,13 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Total Orders - Under Charged")</f>
         <v>Total Orders - Under Charged</v>
       </c>
-      <c r="B4" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
-      </c>
-      <c r="C4" s="3">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),886.9999999999992)</f>
-        <v>887</v>
+      <c r="B4" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),575.0999999999997)</f>
+        <v>575.1</v>
       </c>
     </row>
   </sheetData>
